--- a/DICE_mining.xlsx
+++ b/DICE_mining.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Documents\Desktop\d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Documents\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Time to compute[s]</t>
   </si>
@@ -81,9 +81,6 @@
   <si>
     <t>Global Bitcoin (Feb 2018)</t>
   </si>
-  <si>
-    <t>44.5 TWh</t>
-  </si>
 </sst>
 </file>
 
@@ -118,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -241,6 +244,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="16">
-        <v>1.9E+19</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -581,23 +587,23 @@
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C10" si="1">B2/speed</f>
-        <v>8.830113684210526E-13</v>
+        <v>0.67108864000000001</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:E11" si="2">C2/60</f>
-        <v>1.4716856140350876E-14</v>
+        <v>1.1184810666666666E-2</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" si="2"/>
-        <v>2.4528093567251461E-16</v>
+        <v>1.8641351111111111E-4</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F32" si="3">E2/24</f>
-        <v>1.0220038986354776E-17</v>
+        <v>7.767229629629629E-6</v>
       </c>
       <c r="G2" s="18">
         <f t="shared" ref="G2:G32" si="4">86400/C2</f>
-        <v>9.7846984863281248E+16</v>
+        <v>128746.03271484375</v>
       </c>
       <c r="H2" s="8"/>
     </row>
@@ -611,23 +617,23 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" si="1"/>
-        <v>1.7660227368421052E-12</v>
+        <v>1.34217728</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="2"/>
-        <v>2.9433712280701753E-14</v>
+        <v>2.2369621333333332E-2</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="2"/>
-        <v>4.9056187134502923E-16</v>
+        <v>3.7282702222222222E-4</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="3"/>
-        <v>2.0440077972709552E-17</v>
+        <v>1.5534459259259258E-5</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="4"/>
-        <v>4.8923492431640624E+16</v>
+        <v>64373.016357421875</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -641,23 +647,23 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="1"/>
-        <v>3.5320454736842104E-12</v>
+        <v>2.6843545600000001</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="2"/>
-        <v>5.8867424561403506E-14</v>
+        <v>4.4739242666666665E-2</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="2"/>
-        <v>9.8112374269005846E-16</v>
+        <v>7.4565404444444444E-4</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="3"/>
-        <v>4.0880155945419104E-17</v>
+        <v>3.1068918518518516E-5</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="4"/>
-        <v>2.4461746215820312E+16</v>
+        <v>32186.508178710938</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="13" t="s">
@@ -680,23 +686,23 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>7.0640909473684208E-12</v>
+        <v>5.3687091200000001</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>1.1773484912280701E-13</v>
+        <v>8.947848533333333E-2</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>1.9622474853801169E-15</v>
+        <v>1.4913080888888889E-3</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>8.1760311890838209E-17</v>
+        <v>6.2137837037037032E-5</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="4"/>
-        <v>1.2230873107910156E+16</v>
+        <v>16093.254089355469</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="12" t="s">
@@ -719,23 +725,23 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>1.4128181894736842E-11</v>
+        <v>10.73741824</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="2"/>
-        <v>2.3546969824561402E-13</v>
+        <v>0.17895697066666666</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>3.9244949707602338E-15</v>
+        <v>2.9826161777777777E-3</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="3"/>
-        <v>1.6352062378167642E-16</v>
+        <v>1.2427567407407406E-4</v>
       </c>
       <c r="G6" s="18">
         <f t="shared" si="4"/>
-        <v>6115436553955078</v>
+        <v>8046.6270446777344</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="12" t="s">
@@ -758,23 +764,23 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>2.8256363789473683E-11</v>
+        <v>21.47483648</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="2"/>
-        <v>4.7093939649122805E-13</v>
+        <v>0.35791394133333332</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>7.8489899415204676E-15</v>
+        <v>5.9652323555555555E-3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="3"/>
-        <v>3.2704124756335284E-16</v>
+        <v>2.4855134814814813E-4</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="4"/>
-        <v>3057718276977539</v>
+        <v>4023.3135223388672</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="12" t="s">
@@ -788,32 +794,32 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="28">
         <v>30</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="28">
         <f t="shared" si="0"/>
         <v>1073741824</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="28">
         <f t="shared" si="1"/>
-        <v>5.6512727578947366E-11</v>
-      </c>
-      <c r="D8" s="3">
+        <v>42.949672960000001</v>
+      </c>
+      <c r="D8" s="29">
         <f t="shared" si="2"/>
-        <v>9.4187879298245609E-13</v>
-      </c>
-      <c r="E8" s="3">
+        <v>0.71582788266666664</v>
+      </c>
+      <c r="E8" s="29">
         <f t="shared" si="2"/>
-        <v>1.5697979883040935E-14</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="3"/>
-        <v>6.5408249512670567E-16</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="4"/>
-        <v>1528859138488769.5</v>
+        <v>1.1930464711111111E-2</v>
+      </c>
+      <c r="F8" s="29">
+        <f t="shared" si="3"/>
+        <v>4.9710269629629625E-4</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="4"/>
+        <v>2011.6567611694336</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="12" t="s">
@@ -822,9 +828,6 @@
       <c r="J8" s="27">
         <v>1.9E+19</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -836,23 +839,23 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>1.1302545515789473E-10</v>
+        <v>85.899345920000002</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>1.8837575859649122E-12</v>
+        <v>1.4316557653333333</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>3.1395959766081871E-14</v>
+        <v>2.3860929422222222E-2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="3"/>
-        <v>1.3081649902534113E-15</v>
+        <v>9.9420539259259251E-4</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="4"/>
-        <v>764429569244384.75</v>
+        <v>1005.8283805847168</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -866,23 +869,23 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>2.2605091031578947E-10</v>
+        <v>171.79869184</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
-        <v>3.7675151719298244E-12</v>
+        <v>2.8633115306666665</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>6.2791919532163741E-14</v>
+        <v>4.7721858844444444E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
-        <v>2.6163299805068227E-15</v>
+        <v>1.988410785185185E-3</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="4"/>
-        <v>382214784622192.37</v>
+        <v>502.9141902923584</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -896,55 +899,58 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:C32" si="5">B11/speed</f>
-        <v>4.5210182063157893E-10</v>
+        <v>343.59738368000001</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>7.5350303438596487E-12</v>
+        <v>5.7266230613333331</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>1.2558383906432748E-13</v>
+        <v>9.5443717688888888E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="3"/>
-        <v>5.2326599610136454E-15</v>
+        <v>3.97682157037037E-3</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="4"/>
-        <v>191107392311096.19</v>
+        <v>251.4570951461792</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>34</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="21">
         <f t="shared" si="0"/>
         <v>17179869184</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="21">
         <f t="shared" si="5"/>
-        <v>9.0420364126315786E-10</v>
-      </c>
-      <c r="D12" s="5">
+        <v>687.19476736000001</v>
+      </c>
+      <c r="D12" s="22">
         <f t="shared" ref="D12:E27" si="6">C12/60</f>
-        <v>1.5070060687719297E-11</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="6"/>
-        <v>2.5116767812865496E-13</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0465319922027291E-14</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="4"/>
-        <v>95553696155548.094</v>
+        <v>11.453246122666666</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="6"/>
+        <v>0.19088743537777778</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="3"/>
+        <v>7.9536431407407401E-3</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="4"/>
+        <v>125.7285475730896</v>
       </c>
       <c r="H12" s="9"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -956,23 +962,23 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
-        <v>1.8084072825263157E-9</v>
+        <v>1374.38953472</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="6"/>
-        <v>3.0140121375438595E-11</v>
+        <v>22.906492245333332</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="6"/>
-        <v>5.0233535625730993E-13</v>
+        <v>0.38177487075555555</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>2.0930639844054581E-14</v>
+        <v>1.590728628148148E-2</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="4"/>
-        <v>47776848077774.047</v>
+        <v>62.8642737865448</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -986,23 +992,23 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
-        <v>3.6168145650526314E-9</v>
+        <v>2748.7790694400001</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="6"/>
-        <v>6.028024275087719E-11</v>
+        <v>45.812984490666665</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="6"/>
-        <v>1.0046707125146199E-12</v>
+        <v>0.7635497415111111</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>4.1861279688109163E-14</v>
+        <v>3.181457256296296E-2</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="4"/>
-        <v>23888424038887.023</v>
+        <v>31.4321368932724</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1016,23 +1022,23 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
-        <v>7.2336291301052629E-9</v>
+        <v>5497.5581388800001</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="6"/>
-        <v>1.2056048550175438E-10</v>
+        <v>91.62596898133333</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="6"/>
-        <v>2.0093414250292397E-12</v>
+        <v>1.5270994830222222</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>8.3722559376218326E-14</v>
+        <v>6.3629145125925921E-2</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" si="4"/>
-        <v>11944212019443.512</v>
+        <v>15.7160684466362</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -1046,27 +1052,27 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
-        <v>1.4467258260210526E-8</v>
+        <v>10995.11627776</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="6"/>
-        <v>2.4112097100350876E-10</v>
+        <v>183.25193796266666</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="6"/>
-        <v>4.0186828500584794E-12</v>
+        <v>3.0541989660444444</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>1.6744511875243665E-13</v>
+        <v>0.12725829025185184</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="4"/>
-        <v>5972106009721.7559</v>
+        <v>7.8580342233181</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>39</v>
       </c>
@@ -1076,57 +1082,57 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
-        <v>2.8934516520421052E-8</v>
+        <v>21990.23255552</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="6"/>
-        <v>4.8224194200701752E-10</v>
+        <v>366.50387592533332</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="6"/>
-        <v>8.0373657001169589E-12</v>
+        <v>6.1083979320888888</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>3.348902375048733E-13</v>
+        <v>0.25451658050370368</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="4"/>
-        <v>2986053004860.8779</v>
+        <v>3.92901711165905</v>
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>40</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>1099511627776</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <f t="shared" si="5"/>
-        <v>5.7869033040842103E-8</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="6"/>
-        <v>9.6448388401403504E-10</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6074731400233918E-11</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="3"/>
-        <v>6.6978047500974661E-13</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="4"/>
-        <v>1493026502430.439</v>
+        <v>43980.465111040001</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="6"/>
+        <v>733.00775185066664</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="6"/>
+        <v>12.216795864177778</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.50903316100740736</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="4"/>
+        <v>1.964508555829525</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -1136,27 +1142,27 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
-        <v>1.1573806608168421E-7</v>
+        <v>87960.930222080002</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="6"/>
-        <v>1.9289677680280701E-9</v>
+        <v>1466.0155037013333</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="6"/>
-        <v>3.2149462800467835E-11</v>
+        <v>24.433591728355555</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
-        <v>1.3395609500194932E-12</v>
+        <v>1.0180663220148147</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="4"/>
-        <v>746513251215.21948</v>
+        <v>0.9822542779147625</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42</v>
       </c>
@@ -1166,27 +1172,27 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
-        <v>2.3147613216336841E-7</v>
+        <v>175921.86044416</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="6"/>
-        <v>3.8579355360561402E-9</v>
+        <v>2932.0310074026665</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="6"/>
-        <v>6.4298925600935671E-11</v>
+        <v>48.867183456711111</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
-        <v>2.6791219000389864E-12</v>
+        <v>2.0361326440296295</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="4"/>
-        <v>373256625607.60974</v>
+        <v>0.49112713895738125</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43</v>
       </c>
@@ -1196,57 +1202,60 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
-        <v>4.6295226432673683E-7</v>
+        <v>351843.72088832001</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="6"/>
-        <v>7.7158710721122803E-9</v>
+        <v>5864.0620148053331</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="6"/>
-        <v>1.2859785120187134E-10</v>
+        <v>97.734366913422221</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>5.3582438000779728E-12</v>
+        <v>4.0722652880592589</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="4"/>
-        <v>186628312803.80487</v>
+        <v>0.24556356947869062</v>
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>44</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="21">
         <f t="shared" si="0"/>
         <v>17592186044416</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="21">
         <f t="shared" si="5"/>
-        <v>9.2590452865347365E-7</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="6"/>
-        <v>1.5431742144224561E-8</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="6"/>
-        <v>2.5719570240374268E-10</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0716487600155946E-11</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="4"/>
-        <v>93314156401.902435</v>
+        <v>703687.44177664001</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" si="6"/>
+        <v>11728.124029610666</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="6"/>
+        <v>195.46873382684444</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="3"/>
+        <v>8.1445305761185178</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="4"/>
+        <v>0.12278178473934531</v>
       </c>
       <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45</v>
       </c>
@@ -1256,27 +1265,27 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
-        <v>1.8518090573069473E-6</v>
+        <v>1407374.88355328</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="6"/>
-        <v>3.0863484288449121E-8</v>
+        <v>23456.248059221332</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="6"/>
-        <v>5.1439140480748537E-10</v>
+        <v>390.93746765368888</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
-        <v>2.1432975200311891E-11</v>
+        <v>16.289061152237036</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" si="4"/>
-        <v>46657078200.951218</v>
+        <v>6.1390892369672656E-2</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -1286,27 +1295,27 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
-        <v>3.7036181146138946E-6</v>
+        <v>2814749.7671065601</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="6"/>
-        <v>6.1726968576898242E-8</v>
+        <v>46912.496118442665</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="6"/>
-        <v>1.0287828096149707E-9</v>
+        <v>781.87493530737777</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
-        <v>4.2865950400623783E-11</v>
+        <v>32.578122304474071</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="4"/>
-        <v>23328539100.475609</v>
+        <v>3.0695446184836328E-2</v>
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>47</v>
       </c>
@@ -1316,27 +1325,27 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
-        <v>7.4072362292277892E-6</v>
+        <v>5629499.5342131201</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>1.2345393715379648E-7</v>
+        <v>93824.992236885329</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>2.0575656192299415E-9</v>
+        <v>1563.7498706147555</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
-        <v>8.5731900801247566E-11</v>
+        <v>65.156244608948143</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="4"/>
-        <v>11664269550.237804</v>
+        <v>1.5347723092418164E-2</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>48</v>
       </c>
@@ -1346,27 +1355,27 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>1.4814472458455578E-5</v>
+        <v>11258999.06842624</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>2.4690787430759297E-7</v>
+        <v>187649.98447377066</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>4.1151312384598829E-9</v>
+        <v>3127.4997412295111</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
-        <v>1.7146380160249513E-10</v>
+        <v>130.31248921789629</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="4"/>
-        <v>5832134775.1189022</v>
+        <v>7.673861546209082E-3</v>
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>49</v>
       </c>
@@ -1376,57 +1385,57 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>2.9628944916911157E-5</v>
+        <v>22517998.13685248</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="6"/>
-        <v>4.9381574861518594E-7</v>
+        <v>375299.96894754132</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="6"/>
-        <v>8.2302624769197659E-9</v>
+        <v>6254.9994824590221</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
-        <v>3.4292760320499026E-10</v>
+        <v>260.62497843579257</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="4"/>
-        <v>2916067387.5594511</v>
+        <v>3.836930773104541E-3</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
         <v>50</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="28">
         <f t="shared" si="0"/>
         <v>1125899906842624</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="28">
         <f t="shared" si="5"/>
-        <v>5.9257889833822314E-5</v>
-      </c>
-      <c r="D28" s="3">
+        <v>45035996.273704961</v>
+      </c>
+      <c r="D28" s="29">
         <f t="shared" ref="D28:E37" si="7">C28/60</f>
-        <v>9.8763149723037188E-7</v>
-      </c>
-      <c r="E28" s="3">
+        <v>750599.93789508264</v>
+      </c>
+      <c r="E28" s="29">
         <f t="shared" si="7"/>
-        <v>1.6460524953839532E-8</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="3"/>
-        <v>6.8585520640998052E-10</v>
-      </c>
-      <c r="G28" s="18">
-        <f t="shared" si="4"/>
-        <v>1458033693.7797256</v>
+        <v>12509.998964918044</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="3"/>
+        <v>521.24995687158514</v>
+      </c>
+      <c r="G28" s="30">
+        <f t="shared" si="4"/>
+        <v>1.9184653865522705E-3</v>
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>51</v>
       </c>
@@ -1436,27 +1445,27 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>1.1851577966764463E-4</v>
+        <v>90071992.547409922</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="7"/>
-        <v>1.9752629944607438E-6</v>
+        <v>1501199.8757901653</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="7"/>
-        <v>3.2921049907679064E-8</v>
+        <v>25019.997929836089</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>1.371710412819961E-9</v>
+        <v>1042.4999137431703</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="4"/>
-        <v>729016846.88986278</v>
+        <v>9.5923269327613525E-4</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>52</v>
       </c>
@@ -1466,27 +1475,27 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>2.3703155933528925E-4</v>
+        <v>180143985.09481984</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="7"/>
-        <v>3.9505259889214875E-6</v>
+        <v>3002399.7515803305</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="7"/>
-        <v>6.5842099815358127E-8</v>
+        <v>50039.995859672177</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>2.7434208256399221E-9</v>
+        <v>2084.9998274863406</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="4"/>
-        <v>364508423.44493139</v>
+        <v>4.7961634663806763E-4</v>
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>53</v>
       </c>
@@ -1496,55 +1505,58 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>4.7406311867057851E-4</v>
+        <v>360287970.18963969</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="7"/>
-        <v>7.901051977842975E-6</v>
+        <v>6004799.5031606611</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="7"/>
-        <v>1.3168419963071625E-7</v>
+        <v>100079.99171934435</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>5.4868416512798442E-9</v>
+        <v>4169.9996549726811</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="4"/>
-        <v>182254211.72246569</v>
+        <v>2.3980817331903381E-4</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
         <v>54</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="21">
         <f t="shared" si="0"/>
         <v>1.8014398509481984E+16</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="21">
         <f t="shared" si="5"/>
-        <v>9.4812623734115702E-4</v>
-      </c>
-      <c r="D32" s="5">
+        <v>720575940.37927938</v>
+      </c>
+      <c r="D32" s="22">
         <f t="shared" si="7"/>
-        <v>1.580210395568595E-5</v>
-      </c>
-      <c r="E32" s="5">
+        <v>12009599.006321322</v>
+      </c>
+      <c r="E32" s="22">
         <f t="shared" si="7"/>
-        <v>2.6336839926143251E-7</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0973683302559688E-8</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" si="4"/>
-        <v>91127105.861232847</v>
+        <v>200159.98343868871</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="3"/>
+        <v>8339.9993099453623</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1990408665951691E-4</v>
       </c>
       <c r="H32" s="9"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1556,23 +1568,23 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ref="C33:C42" si="9">B33/speed</f>
-        <v>1.896252474682314E-3</v>
+        <v>1441151880.7585588</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="7"/>
-        <v>3.16042079113719E-5</v>
+        <v>24019198.012642644</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="7"/>
-        <v>5.2673679852286502E-7</v>
+        <v>400319.96687737742</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ref="F33:F42" si="10">E33/24</f>
-        <v>2.1947366605119377E-8</v>
+        <v>16679.998619890725</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" ref="G33:G42" si="11">86400/C33</f>
-        <v>45563552.930616423</v>
+        <v>5.9952043329758453E-5</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -1586,23 +1598,23 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="9"/>
-        <v>3.7925049493646281E-3</v>
+        <v>2882303761.5171175</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="7"/>
-        <v>6.32084158227438E-5</v>
+        <v>48038396.025285289</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="7"/>
-        <v>1.05347359704573E-6</v>
+        <v>800639.93375475483</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="10"/>
-        <v>4.3894733210238754E-8</v>
+        <v>33359.997239781449</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="11"/>
-        <v>22781776.465308212</v>
+        <v>2.9976021664879227E-5</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -1616,23 +1628,23 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="9"/>
-        <v>7.5850098987292561E-3</v>
+        <v>5764607523.034235</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="7"/>
-        <v>1.264168316454876E-4</v>
+        <v>96076792.050570577</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="7"/>
-        <v>2.1069471940914601E-6</v>
+        <v>1601279.8675095097</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="10"/>
-        <v>8.7789466420477507E-8</v>
+        <v>66719.994479562898</v>
       </c>
       <c r="G35" s="18">
         <f t="shared" si="11"/>
-        <v>11390888.232654106</v>
+        <v>1.4988010832439613E-5</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -1646,23 +1658,23 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="9"/>
-        <v>1.5170019797458512E-2</v>
+        <v>11529215046.06847</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="7"/>
-        <v>2.528336632909752E-4</v>
+        <v>192153584.10114115</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="7"/>
-        <v>4.2138943881829201E-6</v>
+        <v>3202559.7350190193</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="10"/>
-        <v>1.7557893284095501E-7</v>
+        <v>133439.9889591258</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" si="11"/>
-        <v>5695444.1163270529</v>
+        <v>7.4940054162198066E-6</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -1676,23 +1688,23 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="9"/>
-        <v>3.0340039594917025E-2</v>
+        <v>23058430092.13694</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="7"/>
-        <v>5.056673265819504E-4</v>
+        <v>384307168.20228231</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="7"/>
-        <v>8.4277887763658403E-6</v>
+        <v>6405119.4700380387</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="10"/>
-        <v>3.5115786568191003E-7</v>
+        <v>266879.97791825159</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="11"/>
-        <v>2847722.0581635265</v>
+        <v>3.7470027081099033E-6</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -1706,23 +1718,23 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="9"/>
-        <v>6.0680079189834049E-2</v>
+        <v>46116860184.27388</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ref="D38:D47" si="12">C38/60</f>
-        <v>1.0113346531639008E-3</v>
+        <v>768614336.40456462</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ref="E38:E47" si="13">D38/60</f>
-        <v>1.6855577552731681E-5</v>
+        <v>12810238.940076077</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="10"/>
-        <v>7.0231573136382006E-7</v>
+        <v>533759.95583650318</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="11"/>
-        <v>1423861.0290817632</v>
+        <v>1.8735013540549517E-6</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -1736,23 +1748,23 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="9"/>
-        <v>0.1213601583796681</v>
+        <v>92233720368.54776</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="12"/>
-        <v>2.0226693063278016E-3</v>
+        <v>1537228672.8091292</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="13"/>
-        <v>3.3711155105463361E-5</v>
+        <v>25620477.880152155</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="10"/>
-        <v>1.4046314627276401E-6</v>
+        <v>1067519.9116730064</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="11"/>
-        <v>711930.51454088162</v>
+        <v>9.3675067702747583E-7</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -1766,23 +1778,23 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="9"/>
-        <v>0.2427203167593362</v>
+        <v>184467440737.09552</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="12"/>
-        <v>4.0453386126556032E-3</v>
+        <v>3074457345.6182585</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="13"/>
-        <v>6.7422310210926722E-5</v>
+        <v>51240955.760304309</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="10"/>
-        <v>2.8092629254552802E-6</v>
+        <v>2135039.8233460127</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="11"/>
-        <v>355965.25727044081</v>
+        <v>4.6837533851373792E-7</v>
       </c>
       <c r="H40" s="8"/>
     </row>
@@ -1796,23 +1808,23 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="9"/>
-        <v>0.48544063351867239</v>
+        <v>368934881474.19104</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="12"/>
-        <v>8.0906772253112064E-3</v>
+        <v>6148914691.236517</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="13"/>
-        <v>1.3484462042185344E-4</v>
+        <v>102481911.52060862</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="10"/>
-        <v>5.6185258509105605E-6</v>
+        <v>4270079.6466920255</v>
       </c>
       <c r="G41" s="18">
         <f t="shared" si="11"/>
-        <v>177982.6286352204</v>
+        <v>2.3418766925686896E-7</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -1826,23 +1838,23 @@
       </c>
       <c r="C42" s="21">
         <f t="shared" si="9"/>
-        <v>0.97088126703734479</v>
+        <v>737869762948.38208</v>
       </c>
       <c r="D42" s="22">
         <f t="shared" si="12"/>
-        <v>1.6181354450622413E-2</v>
+        <v>12297829382.473034</v>
       </c>
       <c r="E42" s="22">
         <f t="shared" si="13"/>
-        <v>2.6968924084370689E-4</v>
+        <v>204963823.04121724</v>
       </c>
       <c r="F42" s="22">
         <f t="shared" si="10"/>
-        <v>1.1237051701821121E-5</v>
+        <v>8540159.293384051</v>
       </c>
       <c r="G42" s="23">
         <f t="shared" si="11"/>
-        <v>88991.314317610202</v>
+        <v>1.1709383462843448E-7</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="24"/>
@@ -1859,23 +1871,23 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ref="C43:C52" si="15">B43/speed</f>
-        <v>1.9417625340746896</v>
+        <v>1475739525896.7642</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="12"/>
-        <v>3.2362708901244826E-2</v>
+        <v>24595658764.946068</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="13"/>
-        <v>5.3937848168741378E-4</v>
+        <v>409927646.08243448</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" ref="F43:F52" si="16">E43/24</f>
-        <v>2.2474103403642242E-5</v>
+        <v>17080318.586768102</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" ref="G43:G52" si="17">86400/C43</f>
-        <v>44495.657158805101</v>
+        <v>5.8546917314217239E-8</v>
       </c>
       <c r="H43" s="8"/>
     </row>
@@ -1889,23 +1901,23 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="15"/>
-        <v>3.8835250681493791</v>
+        <v>2951479051793.5283</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="12"/>
-        <v>6.4725417802489651E-2</v>
+        <v>49191317529.892136</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="13"/>
-        <v>1.0787569633748276E-3</v>
+        <v>819855292.16486895</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="16"/>
-        <v>4.4948206807284484E-5</v>
+        <v>34160637.173536204</v>
       </c>
       <c r="G44" s="18">
         <f t="shared" si="17"/>
-        <v>22247.828579402551</v>
+        <v>2.927345865710862E-8</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -1919,23 +1931,23 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="15"/>
-        <v>7.7670501362987583</v>
+        <v>5902958103587.0566</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="12"/>
-        <v>0.1294508356049793</v>
+        <v>98382635059.784271</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="13"/>
-        <v>2.1575139267496551E-3</v>
+        <v>1639710584.3297379</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="16"/>
-        <v>8.9896413614568967E-5</v>
+        <v>68321274.347072408</v>
       </c>
       <c r="G45" s="18">
         <f t="shared" si="17"/>
-        <v>11123.914289701275</v>
+        <v>1.463672932855431E-8</v>
       </c>
       <c r="H45" s="8"/>
     </row>
@@ -1949,23 +1961,23 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="15"/>
-        <v>15.534100272597517</v>
+        <v>11805916207174.113</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="12"/>
-        <v>0.25890167120995861</v>
+        <v>196765270119.56854</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="13"/>
-        <v>4.3150278534993102E-3</v>
+        <v>3279421168.6594758</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="16"/>
-        <v>1.7979282722913793E-4</v>
+        <v>136642548.69414482</v>
       </c>
       <c r="G46" s="18">
         <f t="shared" si="17"/>
-        <v>5561.9571448506376</v>
+        <v>7.3183646642771549E-9</v>
       </c>
       <c r="H46" s="8"/>
     </row>
@@ -1979,23 +1991,23 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="15"/>
-        <v>31.068200545195033</v>
+        <v>23611832414348.227</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="12"/>
-        <v>0.51780334241991721</v>
+        <v>393530540239.13708</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="13"/>
-        <v>8.6300557069986204E-3</v>
+        <v>6558842337.3189516</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="16"/>
-        <v>3.5958565445827587E-4</v>
+        <v>273285097.38828963</v>
       </c>
       <c r="G47" s="18">
         <f t="shared" si="17"/>
-        <v>2780.9785724253188</v>
+        <v>3.6591823321385775E-9</v>
       </c>
       <c r="H47" s="8"/>
     </row>
@@ -2009,23 +2021,23 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="15"/>
-        <v>62.136401090390066</v>
+        <v>47223664828696.453</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ref="D48:D57" si="18">C48/60</f>
-        <v>1.0356066848398344</v>
+        <v>787061080478.27417</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ref="E48:E57" si="19">D48/60</f>
-        <v>1.7260111413997241E-2</v>
+        <v>13117684674.637903</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="16"/>
-        <v>7.1917130891655174E-4</v>
+        <v>546570194.77657926</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" si="17"/>
-        <v>1390.4892862126594</v>
+        <v>1.8295911660692887E-9</v>
       </c>
       <c r="H48" s="8"/>
     </row>
@@ -2039,23 +2051,23 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="15"/>
-        <v>124.27280218078013</v>
+        <v>94447329657392.906</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="18"/>
-        <v>2.0712133696796688</v>
+        <v>1574122160956.5483</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="19"/>
-        <v>3.4520222827994482E-2</v>
+        <v>26235369349.275806</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="16"/>
-        <v>1.4383426178331035E-3</v>
+        <v>1093140389.5531585</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="17"/>
-        <v>695.2446431063297</v>
+        <v>9.1479558303464437E-10</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -2069,23 +2081,23 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="15"/>
-        <v>248.54560436156027</v>
+        <v>188894659314785.81</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="18"/>
-        <v>4.1424267393593377</v>
+        <v>3148244321913.0967</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="19"/>
-        <v>6.9040445655988963E-2</v>
+        <v>52470738698.551613</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="16"/>
-        <v>2.876685235666207E-3</v>
+        <v>2186280779.106317</v>
       </c>
       <c r="G50" s="18">
         <f t="shared" si="17"/>
-        <v>347.62232155316485</v>
+        <v>4.5739779151732218E-10</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -2099,23 +2111,23 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="15"/>
-        <v>497.09120872312053</v>
+        <v>377789318629571.62</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="18"/>
-        <v>8.2848534787186754</v>
+        <v>6296488643826.1934</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="19"/>
-        <v>0.13808089131197793</v>
+        <v>104941477397.10323</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="16"/>
-        <v>5.7533704713324139E-3</v>
+        <v>4372561558.2126341</v>
       </c>
       <c r="G51" s="18">
         <f t="shared" si="17"/>
-        <v>173.81116077658243</v>
+        <v>2.2869889575866109E-10</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2129,23 +2141,23 @@
       </c>
       <c r="C52" s="21">
         <f t="shared" si="15"/>
-        <v>994.18241744624106</v>
+        <v>755578637259143.25</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="18"/>
-        <v>16.569706957437351</v>
+        <v>12592977287652.387</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="19"/>
-        <v>0.27616178262395585</v>
+        <v>209882954794.20645</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="16"/>
-        <v>1.1506740942664828E-2</v>
+        <v>8745123116.4252682</v>
       </c>
       <c r="G52" s="23">
         <f t="shared" si="17"/>
-        <v>86.905580388291213</v>
+        <v>1.1434944787933055E-10</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="24"/>
@@ -2162,23 +2174,23 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ref="C53:C62" si="21">B53/speed</f>
-        <v>1988.3648348924821</v>
+        <v>1511157274518286.5</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="18"/>
-        <v>33.139413914874702</v>
+        <v>25185954575304.773</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="19"/>
-        <v>0.55232356524791171</v>
+        <v>419765909588.4129</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" ref="F53:F62" si="22">E53/24</f>
-        <v>2.3013481885329656E-2</v>
+        <v>17490246232.850536</v>
       </c>
       <c r="G53" s="18">
         <f t="shared" ref="G53:G62" si="23">86400/C53</f>
-        <v>43.452790194145607</v>
+        <v>5.7174723939665273E-11</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -2192,23 +2204,23 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="21"/>
-        <v>3976.7296697849642</v>
+        <v>3022314549036573</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="18"/>
-        <v>66.278827829749403</v>
+        <v>50371909150609.547</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="19"/>
-        <v>1.1046471304958234</v>
+        <v>839531819176.82581</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="22"/>
-        <v>4.6026963770659311E-2</v>
+        <v>34980492465.701073</v>
       </c>
       <c r="G54" s="18">
         <f t="shared" si="23"/>
-        <v>21.726395097072803</v>
+        <v>2.8587361969832636E-11</v>
       </c>
       <c r="H54" s="8"/>
     </row>
@@ -2222,23 +2234,23 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="21"/>
-        <v>7953.4593395699285</v>
+        <v>6044629098073146</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="18"/>
-        <v>132.55765565949881</v>
+        <v>100743818301219.09</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="19"/>
-        <v>2.2092942609916468</v>
+        <v>1679063638353.6516</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="22"/>
-        <v>9.2053927541318623E-2</v>
+        <v>69960984931.402145</v>
       </c>
       <c r="G55" s="18">
         <f t="shared" si="23"/>
-        <v>10.863197548536402</v>
+        <v>1.4293680984916318E-11</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -2252,23 +2264,23 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="21"/>
-        <v>15906.918679139857</v>
+        <v>1.2089258196146292E+16</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="18"/>
-        <v>265.11531131899761</v>
+        <v>201487636602438.19</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="19"/>
-        <v>4.4185885219832937</v>
+        <v>3358127276707.3032</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="22"/>
-        <v>0.18410785508263725</v>
+        <v>139921969862.80429</v>
       </c>
       <c r="G56" s="18">
         <f t="shared" si="23"/>
-        <v>5.4315987742682008</v>
+        <v>7.1468404924581591E-12</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -2282,23 +2294,23 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="21"/>
-        <v>31813.837358279714</v>
+        <v>2.4178516392292584E+16</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="18"/>
-        <v>530.23062263799522</v>
+        <v>402975273204876.37</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="19"/>
-        <v>8.8371770439665873</v>
+        <v>6716254553414.6064</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="22"/>
-        <v>0.36821571016527449</v>
+        <v>279843939725.60858</v>
       </c>
       <c r="G57" s="18">
         <f t="shared" si="23"/>
-        <v>2.7157993871341004</v>
+        <v>3.5734202462290796E-12</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -2312,23 +2324,23 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="21"/>
-        <v>63627.674716559428</v>
+        <v>4.8357032784585168E+16</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ref="D58:D62" si="24">C58/60</f>
-        <v>1060.4612452759904</v>
+        <v>805950546409752.75</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ref="E58:E62" si="25">D58/60</f>
-        <v>17.674354087933175</v>
+        <v>13432509106829.213</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="22"/>
-        <v>0.73643142033054898</v>
+        <v>559687879451.21716</v>
       </c>
       <c r="G58" s="18">
         <f t="shared" si="23"/>
-        <v>1.3578996935670502</v>
+        <v>1.7867101231145398E-12</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -2342,23 +2354,23 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="21"/>
-        <v>127255.34943311886</v>
+        <v>9.6714065569170336E+16</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="24"/>
-        <v>2120.9224905519809</v>
+        <v>1611901092819505.5</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="25"/>
-        <v>35.348708175866349</v>
+        <v>26865018213658.426</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="22"/>
-        <v>1.472862840661098</v>
+        <v>1119375758902.4343</v>
       </c>
       <c r="G59" s="18">
         <f t="shared" si="23"/>
-        <v>0.6789498467835251</v>
+        <v>8.9335506155726989E-13</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -2372,23 +2384,23 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="21"/>
-        <v>254510.69886623771</v>
+        <v>1.9342813113834067E+17</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="24"/>
-        <v>4241.8449811039618</v>
+        <v>3223802185639011</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="25"/>
-        <v>70.697416351732699</v>
+        <v>53730036427316.852</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="22"/>
-        <v>2.9457256813221959</v>
+        <v>2238751517804.8687</v>
       </c>
       <c r="G60" s="18">
         <f t="shared" si="23"/>
-        <v>0.33947492339176255</v>
+        <v>4.4667753077863494E-13</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -2402,23 +2414,23 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="21"/>
-        <v>509021.39773247542</v>
+        <v>3.8685626227668134E+17</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="24"/>
-        <v>8483.6899622079236</v>
+        <v>6447604371278022</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="25"/>
-        <v>141.3948327034654</v>
+        <v>107460072854633.7</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="22"/>
-        <v>5.8914513626443918</v>
+        <v>4477503035609.7373</v>
       </c>
       <c r="G61" s="18">
         <f t="shared" si="23"/>
-        <v>0.16973746169588128</v>
+        <v>2.2333876538931747E-13</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -2432,23 +2444,23 @@
       </c>
       <c r="C62" s="21">
         <f t="shared" si="21"/>
-        <v>1018042.7954649508</v>
+        <v>7.7371252455336269E+17</v>
       </c>
       <c r="D62" s="22">
         <f t="shared" si="24"/>
-        <v>16967.379924415847</v>
+        <v>1.2895208742556044E+16</v>
       </c>
       <c r="E62" s="22">
         <f t="shared" si="25"/>
-        <v>282.78966540693079</v>
+        <v>214920145709267.41</v>
       </c>
       <c r="F62" s="22">
         <f t="shared" si="22"/>
-        <v>11.782902725288784</v>
+        <v>8955006071219.4746</v>
       </c>
       <c r="G62" s="23">
         <f t="shared" si="23"/>
-        <v>8.4868730847940638E-2</v>
+        <v>1.1166938269465874E-13</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="24"/>
